--- a/assets/form/LKP/ZHPPKR.xlsx
+++ b/assets/form/LKP/ZHPPKR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\nov1\assets\form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\nov1\assets\form\LKP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30C48321-37BA-45D2-AD24-6171A5EDD387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA69CCE-FD70-4D1A-AABE-4638DA1ED424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87B20C6C-BD06-4F41-8FB3-A10D13ADAC4A}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{87B20C6C-BD06-4F41-8FB3-A10D13ADAC4A}"/>
   </bookViews>
   <sheets>
     <sheet name="ZHPPKR" sheetId="1" r:id="rId1"/>
@@ -386,28 +386,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A543B833-5A84-426B-B5E0-B44F1EB256ED}">
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,17 +739,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -839,81 +839,81 @@
       <c r="J20" s="2"/>
     </row>
     <row r="22" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="11" t="s">
+      <c r="G22" s="13"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="11" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
@@ -1039,11 +1039,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="M22:M24"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
@@ -1053,8 +1048,13 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="M22:M24"/>
   </mergeCells>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>